--- a/FlipkartAutomationProject/DataReader.xlsx
+++ b/FlipkartAutomationProject/DataReader.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
   <si>
     <t>Iphone</t>
   </si>
@@ -480,6 +480,9 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -491,6 +494,9 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -502,6 +508,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -513,8 +522,12 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6"/>
+    <row r="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
